--- a/aboutData/ConstantData.xlsx
+++ b/aboutData/ConstantData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18135" windowHeight="9600"/>
+    <workbookView windowWidth="23355" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -101,17 +101,62 @@
   <si>
     <t>获得精英战士</t>
   </si>
+  <si>
+    <t>解锁科技</t>
+  </si>
+  <si>
+    <t>解锁军队</t>
+  </si>
+  <si>
+    <t>解锁建筑</t>
+  </si>
+  <si>
+    <t>解锁资源</t>
+  </si>
+  <si>
+    <t>作用于科技</t>
+  </si>
+  <si>
+    <t>作用于军队</t>
+  </si>
+  <si>
+    <t>ArmsData</t>
+  </si>
+  <si>
+    <t>作用于建筑</t>
+  </si>
+  <si>
+    <t>ArchitectureData</t>
+  </si>
+  <si>
+    <t>作用于资源</t>
+  </si>
+  <si>
+    <t>GoodsData</t>
+  </si>
+  <si>
+    <t>作用于地形</t>
+  </si>
+  <si>
+    <t>TerrainData</t>
+  </si>
+  <si>
+    <t>降低科技花费</t>
+  </si>
+  <si>
+    <t>增加防御</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -152,44 +197,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,12 +215,86 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -219,15 +303,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,68 +348,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -336,6 +381,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -348,37 +495,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,108 +549,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -499,24 +562,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,39 +572,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -581,8 +593,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,21 +638,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -627,162 +648,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1136,222 +1178,263 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="54" customHeight="1" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="7"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="7"/>
-    </row>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6">
+        <v>101</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6">
+        <v>102</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6">
+        <v>103</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6">
+        <v>104</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6">
+        <v>105</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6">
+        <v>106</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6">
+        <v>107</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="6">
+        <v>108</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
+      <c r="A21" s="6">
+        <v>109</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6">
+        <v>110</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:2">
+      <c r="A23" s="6">
+        <v>111</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aboutData/ConstantData.xlsx
+++ b/aboutData/ConstantData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23355" windowHeight="11550"/>
+    <workbookView windowWidth="17025" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -117,28 +117,31 @@
     <t>作用于科技</t>
   </si>
   <si>
+    <t>WorkOnTechnology</t>
+  </si>
+  <si>
     <t>作用于军队</t>
   </si>
   <si>
-    <t>ArmsData</t>
+    <t>WorkOnArmy</t>
   </si>
   <si>
     <t>作用于建筑</t>
   </si>
   <si>
-    <t>ArchitectureData</t>
+    <t>WorkOnArchitecture</t>
   </si>
   <si>
     <t>作用于资源</t>
   </si>
   <si>
-    <t>GoodsData</t>
+    <t>WorkOnGoods</t>
   </si>
   <si>
     <t>作用于地形</t>
   </si>
   <si>
-    <t>TerrainData</t>
+    <t>WorkInTerrain</t>
   </si>
   <si>
     <t>降低科技花费</t>
@@ -152,11 +155,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -197,9 +200,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,99 +222,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,24 +282,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,6 +307,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -381,19 +384,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,163 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,6 +575,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,9 +619,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,56 +675,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -680,10 +683,10 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,133 +695,133 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,7 +1184,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1350,12 +1353,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" s="6">
         <v>105</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1363,10 +1369,10 @@
         <v>106</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1374,10 +1380,10 @@
         <v>107</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1385,10 +1391,10 @@
         <v>108</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1396,10 +1402,10 @@
         <v>109</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1407,7 +1413,7 @@
         <v>110</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:2">
@@ -1415,7 +1421,7 @@
         <v>111</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:2">

--- a/aboutData/ConstantData.xlsx
+++ b/aboutData/ConstantData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17025" windowHeight="11550"/>
+    <workbookView windowWidth="19740" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -155,11 +155,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -201,16 +201,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,58 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -282,6 +291,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -290,62 +328,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,187 +384,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,21 +588,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -613,26 +598,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,9 +619,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,153 +642,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/aboutData/ConstantData.xlsx
+++ b/aboutData/ConstantData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19740" windowHeight="11550"/>
+    <workbookView windowWidth="22515" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -155,11 +155,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -201,6 +201,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -208,7 +253,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,130 +312,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,187 +384,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,6 +602,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -627,201 +675,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
